--- a/EC/Train Runs and Enforcements 2016-07-31.xlsx
+++ b/EC/Train Runs and Enforcements 2016-07-31.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12420" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Train Runs" sheetId="1" r:id="rId1"/>
@@ -2506,9 +2506,6 @@
     <t>Departure from Main 3</t>
   </si>
   <si>
-    <t>Cut out at Central Park Station, no issues observed</t>
-  </si>
-  <si>
     <t>Onboard in-route failure</t>
   </si>
   <si>
@@ -2546,6 +2543,9 @@
   </si>
   <si>
     <t>Accidentally chose 172-31 instead</t>
+  </si>
+  <si>
+    <t>According to operator, released air.. Look more into this</t>
   </si>
 </sst>
 </file>
@@ -2558,7 +2558,7 @@
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="168" formatCode="m/d/yy\ h:mm;@"/>
-    <numFmt numFmtId="169" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="0" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="170" formatCode="0.000"/>
     <numFmt numFmtId="171" formatCode="0.0000"/>
   </numFmts>
@@ -2911,21 +2911,21 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="134">
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2935,20 +2935,20 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2957,10 +2957,10 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2972,46 +2972,46 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="169" fontId="8" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -3021,7 +3021,7 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -3030,13 +3030,13 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3050,20 +3050,20 @@
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -3101,7 +3101,7 @@
     <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3112,32 +3112,32 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -3166,7 +3166,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
@@ -3174,9 +3174,9 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3199,26 +3199,26 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3590,7 +3590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CM200"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4105,25 +4105,25 @@
       <c r="AD10" s="70"/>
     </row>
     <row r="11" spans="1:91" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="128" t="str">
+      <c r="A11" s="132" t="str">
         <f>"Eagle P3 System Performance - "&amp;TEXT(Variables!A2,"yyyy-mm-dd")</f>
         <v>Eagle P3 System Performance - 2016-07-31</v>
       </c>
-      <c r="B11" s="128"/>
-      <c r="C11" s="128"/>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
-      <c r="F11" s="128"/>
-      <c r="G11" s="128"/>
-      <c r="H11" s="128"/>
-      <c r="I11" s="128"/>
-      <c r="J11" s="128"/>
-      <c r="K11" s="128"/>
-      <c r="L11" s="128"/>
-      <c r="M11" s="128"/>
-      <c r="N11" s="128"/>
-      <c r="O11" s="128"/>
-      <c r="P11" s="128"/>
+      <c r="B11" s="132"/>
+      <c r="C11" s="132"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="132"/>
+      <c r="F11" s="132"/>
+      <c r="G11" s="132"/>
+      <c r="H11" s="132"/>
+      <c r="I11" s="132"/>
+      <c r="J11" s="132"/>
+      <c r="K11" s="132"/>
+      <c r="L11" s="132"/>
+      <c r="M11" s="132"/>
+      <c r="N11" s="132"/>
+      <c r="O11" s="132"/>
+      <c r="P11" s="132"/>
       <c r="S11" s="97">
         <f>AVERAGE(S13:S160)</f>
         <v>0.93367346938775508</v>
@@ -4742,7 +4742,7 @@
         <v>811</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C17" s="25" t="s">
         <v>177</v>
@@ -4754,7 +4754,7 @@
         <v>42582.192048611112</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="G17" s="7">
         <v>1</v>
@@ -4763,7 +4763,7 @@
         <v>407</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="J17" s="7">
         <v>0</v>
@@ -4787,7 +4787,7 @@
       </c>
       <c r="Q17" s="26"/>
       <c r="R17" s="26" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="S17" s="41">
         <f t="shared" ref="S17" si="18">SUM(U17:U17)/IF(AG17="EC",12,1)</f>
@@ -10613,7 +10613,7 @@
       </c>
       <c r="Q69" s="26"/>
       <c r="R69" s="26" t="s">
-        <v>814</v>
+        <v>827</v>
       </c>
       <c r="S69" s="41">
         <f t="shared" si="8"/>
@@ -12138,7 +12138,7 @@
     </row>
     <row r="83" spans="1:33" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="45" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B83" s="7">
         <v>4031</v>
@@ -12153,7 +12153,7 @@
         <v>42582.519143518519</v>
       </c>
       <c r="F83" s="16" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="G83" s="7">
         <v>1</v>
@@ -12162,7 +12162,7 @@
         <v>507</v>
       </c>
       <c r="I83" s="16" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="J83" s="7">
         <v>0</v>
@@ -12186,7 +12186,7 @@
       </c>
       <c r="Q83" s="26"/>
       <c r="R83" s="26" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="S83" s="41">
         <f t="shared" ref="S83" si="60">SUM(U83:U83)/IF(AG83="EC",12,1)</f>
@@ -12861,7 +12861,7 @@
       </c>
       <c r="Q89" s="26"/>
       <c r="R89" s="26" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="S89" s="41">
         <f t="shared" si="41"/>
@@ -13087,7 +13087,7 @@
       </c>
       <c r="Q91" s="26"/>
       <c r="R91" s="26" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="S91" s="41">
         <f t="shared" si="41"/>
@@ -13936,31 +13936,31 @@
     </row>
     <row r="99" spans="1:33" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="45" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B99" s="7">
         <v>4032</v>
       </c>
       <c r="C99" s="25" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D99" s="25" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="F99" s="16" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="H99" s="16" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="I99" s="16" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="J99" s="7">
         <v>0</v>
@@ -13984,7 +13984,7 @@
       </c>
       <c r="Q99" s="26"/>
       <c r="R99" s="26" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="S99" s="41">
         <f t="shared" ref="S99" si="76">SUM(U99:U99)/IF(AG99="EC",12,1)</f>
@@ -14386,7 +14386,7 @@
     </row>
     <row r="103" spans="1:33" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="45" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B103" s="7">
         <v>4028</v>
@@ -14401,7 +14401,7 @@
         <v>42582.619201388887</v>
       </c>
       <c r="F103" s="16" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="G103" s="7">
         <v>1</v>
@@ -14410,7 +14410,7 @@
         <v>373</v>
       </c>
       <c r="I103" s="16" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="J103" s="7">
         <v>0</v>
@@ -14434,7 +14434,7 @@
       </c>
       <c r="Q103" s="26"/>
       <c r="R103" s="26" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="S103" s="41">
         <f t="shared" ref="S103" si="90">SUM(U103:U103)/IF(AG103="EC",12,1)</f>
@@ -14773,7 +14773,7 @@
       </c>
       <c r="Q106" s="26"/>
       <c r="R106" s="26" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="S106" s="41">
         <f t="shared" si="41"/>
@@ -16008,7 +16008,7 @@
       </c>
       <c r="Q117" s="26"/>
       <c r="R117" s="26" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="S117" s="41">
         <f t="shared" ref="S117" si="108">SUM(U117:U117)/IF(AG117="EC",12,1)</f>
@@ -17467,7 +17467,7 @@
       </c>
       <c r="Q130" s="26"/>
       <c r="R130" s="26" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="S130" s="41">
         <f t="shared" si="41"/>
@@ -17532,7 +17532,7 @@
     </row>
     <row r="131" spans="1:33" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="25" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B131" s="98">
         <v>4028</v>
@@ -17547,7 +17547,7 @@
         <v>42582.756585648145</v>
       </c>
       <c r="F131" s="100" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="G131" s="98">
         <v>1</v>
@@ -17556,7 +17556,7 @@
         <v>339</v>
       </c>
       <c r="I131" s="100" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="J131" s="98">
         <v>0</v>
@@ -17580,7 +17580,7 @@
       </c>
       <c r="Q131" s="26"/>
       <c r="R131" s="26" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="S131" s="41">
         <f t="shared" ref="S131" si="121">SUM(U131:U131)/IF(AG131="EC",12,1)</f>
@@ -25438,7 +25438,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V63"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:N30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -25521,22 +25523,22 @@
       <c r="T4" s="58"/>
     </row>
     <row r="5" spans="1:22" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="128" t="str">
+      <c r="A5" s="132" t="str">
         <f>"Eagle P3 Braking Events - "&amp;TEXT(Variables!$A$2,"YYYY-mm-dd")</f>
         <v>Eagle P3 Braking Events - 2016-07-31</v>
       </c>
-      <c r="B5" s="128"/>
-      <c r="C5" s="128"/>
-      <c r="D5" s="128"/>
-      <c r="E5" s="128"/>
-      <c r="F5" s="128"/>
-      <c r="G5" s="128"/>
-      <c r="H5" s="128"/>
-      <c r="I5" s="128"/>
-      <c r="J5" s="128"/>
-      <c r="K5" s="128"/>
-      <c r="L5" s="128"/>
-      <c r="M5" s="128"/>
+      <c r="B5" s="132"/>
+      <c r="C5" s="132"/>
+      <c r="D5" s="132"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="132"/>
+      <c r="G5" s="132"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="132"/>
+      <c r="J5" s="132"/>
+      <c r="K5" s="132"/>
+      <c r="L5" s="132"/>
+      <c r="M5" s="132"/>
       <c r="N5" s="13"/>
       <c r="Q5" s="29"/>
       <c r="T5" s="59"/>
@@ -29855,8 +29857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29872,14 +29874,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="129" t="str">
+      <c r="A1" s="133" t="str">
         <f>"Trips that did not appear in PTC Data "&amp;TEXT(Variables!$A$2,"YYYY-mm-dd")</f>
         <v>Trips that did not appear in PTC Data 2016-07-31</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
     </row>
     <row r="2" spans="1:10" s="28" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
@@ -29909,7 +29911,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B3" s="102">
         <v>2</v>
@@ -29918,7 +29920,7 @@
         <v>4039</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E3" s="25" t="e">
         <f>VLOOKUP(A3,'Trips&amp;Operators'!$C$2:$E$10000,3,FALSE)</f>
@@ -29940,27 +29942,27 @@
       <c r="J3" s="24"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="130" t="s">
-        <v>819</v>
-      </c>
-      <c r="B4" s="131">
+      <c r="A4" s="128" t="s">
+        <v>818</v>
+      </c>
+      <c r="B4" s="129">
         <v>2</v>
       </c>
-      <c r="C4" s="131">
+      <c r="C4" s="129">
         <v>4032</v>
       </c>
-      <c r="D4" s="130" t="s">
-        <v>827</v>
-      </c>
-      <c r="E4" s="132" t="e">
+      <c r="D4" s="128" t="s">
+        <v>826</v>
+      </c>
+      <c r="E4" s="130" t="e">
         <f>VLOOKUP(A4,'Trips&amp;Operators'!$C$2:$E$10000,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F4" s="132" t="e">
+      <c r="F4" s="130" t="e">
         <f>VLOOKUP(A4,'Trips&amp;Operators'!$C$1:$F$10000,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G4" s="133" t="e">
+      <c r="G4" s="131" t="e">
         <f>VLOOKUP(A4,'Trips&amp;Operators'!$C$1:$H$10000,5,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -42968,7 +42970,7 @@
         <v>122</v>
       </c>
       <c r="M20" s="84" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="21" spans="10:13" x14ac:dyDescent="0.25">
